--- a/biology/Médecine/Déficit_congénital_en_lactase/Déficit_congénital_en_lactase.xlsx
+++ b/biology/Médecine/Déficit_congénital_en_lactase/Déficit_congénital_en_lactase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_cong%C3%A9nital_en_lactase</t>
+          <t>Déficit_congénital_en_lactase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le déficit congénital en lactase ou intolérance au disaccharide se manifeste par une diarrhée soit dans les premiers jours de vie soit beaucoup plus tardivement et uniquement après l'ingestion d'un bol de lait.
